--- a/Milestone3/ExcelSheets/Initial_Simulation_Throughputs.xlsx
+++ b/Milestone3/ExcelSheets/Initial_Simulation_Throughputs.xlsx
@@ -459,7 +459,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>5.811</v>
+        <v>5.673</v>
       </c>
       <c r="D2" t="n">
         <v>20000</v>
@@ -473,7 +473,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.718</v>
+        <v>5.985</v>
       </c>
       <c r="D3" t="n">
         <v>20000</v>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>5.862</v>
+        <v>5.619000000000001</v>
       </c>
       <c r="D4" t="n">
         <v>20000</v>
@@ -501,7 +501,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>5.61</v>
+        <v>5.832000000000001</v>
       </c>
       <c r="D5" t="n">
         <v>20000</v>
@@ -515,7 +515,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>5.784000000000001</v>
+        <v>5.688000000000001</v>
       </c>
       <c r="D6" t="n">
         <v>20000</v>
@@ -529,7 +529,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>5.757000000000001</v>
+        <v>5.751</v>
       </c>
       <c r="D7" t="n">
         <v>20000</v>
@@ -543,7 +543,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>5.787</v>
+        <v>5.844</v>
       </c>
       <c r="D8" t="n">
         <v>20000</v>
@@ -557,7 +557,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>5.538</v>
+        <v>5.553</v>
       </c>
       <c r="D9" t="n">
         <v>20000</v>
@@ -571,7 +571,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>5.760000000000001</v>
+        <v>5.892</v>
       </c>
       <c r="D10" t="n">
         <v>20000</v>
@@ -585,7 +585,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>5.52</v>
+        <v>5.691000000000001</v>
       </c>
       <c r="D11" t="n">
         <v>20000</v>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5.714700000000001</v>
+        <v>5.752800000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="13">
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1117792914631328</v>
+        <v>0.1265288899816955</v>
       </c>
       <c r="D13" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="14">
@@ -629,14 +629,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CI:+-0.07989</t>
+          <t>CI:+-0.09043</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5.634814162684491</v>
+        <v>5.662372997032967</v>
       </c>
       <c r="D14" t="n">
-        <v>5.79458583731551</v>
+        <v>5.843227002967034</v>
       </c>
     </row>
     <row r="15">
@@ -645,14 +645,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PI:+-0.28982</t>
+          <t>PI:+-0.32807</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5.424875352983342</v>
+        <v>5.424732158485282</v>
       </c>
       <c r="D15" t="n">
-        <v>6.004524647016659</v>
+        <v>6.080867841514719</v>
       </c>
     </row>
   </sheetData>
